--- a/Wave 5_React_Tracker_(Your_Name).xlsx
+++ b/Wave 5_React_Tracker_(Your_Name).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>TD</t>
-  </si>
-  <si>
-    <t>IP</t>
   </si>
   <si>
     <t>Name: CHANDAN M KARI</t>
@@ -128,7 +125,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -138,6 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,16 +437,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5"/>
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30">
       <c r="A3" s="4" t="s">
@@ -467,10 +464,10 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -490,40 +487,40 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
